--- a/data/pca/factorExposure/factorExposure_2012-05-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-05-29.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01677320384002309</v>
+        <v>0.02155714740590003</v>
       </c>
       <c r="C2">
-        <v>-0.03377381872025536</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02659077327431914</v>
+      </c>
+      <c r="D2">
+        <v>0.003549190039271421</v>
+      </c>
+      <c r="E2">
+        <v>-0.02985249924884791</v>
+      </c>
+      <c r="F2">
+        <v>0.01057723081688807</v>
+      </c>
+      <c r="G2">
+        <v>-0.01140056114080131</v>
+      </c>
+      <c r="H2">
+        <v>-0.05581030719137387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.06834135125685437</v>
+        <v>0.07822320809391059</v>
       </c>
       <c r="C4">
-        <v>-0.06143726588766411</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.04118058559780061</v>
+      </c>
+      <c r="D4">
+        <v>-0.06938102728747475</v>
+      </c>
+      <c r="E4">
+        <v>-0.0006559811419658766</v>
+      </c>
+      <c r="F4">
+        <v>0.03363670109644071</v>
+      </c>
+      <c r="G4">
+        <v>0.004374397130381904</v>
+      </c>
+      <c r="H4">
+        <v>0.02297173854170203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.09873890355425054</v>
+        <v>0.1152904471038858</v>
       </c>
       <c r="C6">
-        <v>-0.06731634756888603</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.04267976676717667</v>
+      </c>
+      <c r="D6">
+        <v>-0.01331582266120462</v>
+      </c>
+      <c r="E6">
+        <v>0.007022679445014929</v>
+      </c>
+      <c r="F6">
+        <v>0.04982757343693045</v>
+      </c>
+      <c r="G6">
+        <v>-0.01418517885565647</v>
+      </c>
+      <c r="H6">
+        <v>-0.06378469501356954</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04718917581513758</v>
+        <v>0.05868246711456649</v>
       </c>
       <c r="C7">
-        <v>-0.03433467118921343</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.02414480237918281</v>
+      </c>
+      <c r="D7">
+        <v>-0.04152789903267966</v>
+      </c>
+      <c r="E7">
+        <v>-0.01996896807344993</v>
+      </c>
+      <c r="F7">
+        <v>0.03771311130026032</v>
+      </c>
+      <c r="G7">
+        <v>0.04475503561473648</v>
+      </c>
+      <c r="H7">
+        <v>0.02924034966445604</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03472268490908056</v>
+        <v>0.03743319912328009</v>
       </c>
       <c r="C8">
-        <v>-0.02557209133133465</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01459626133654669</v>
+      </c>
+      <c r="D8">
+        <v>-0.03542692056253686</v>
+      </c>
+      <c r="E8">
+        <v>-0.003424543048333895</v>
+      </c>
+      <c r="F8">
+        <v>0.04611882887617243</v>
+      </c>
+      <c r="G8">
+        <v>-0.02534220339053</v>
+      </c>
+      <c r="H8">
+        <v>-0.02602492117673548</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06302212611640792</v>
+        <v>0.07300044298655574</v>
       </c>
       <c r="C9">
-        <v>-0.04904527813226082</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.03048515098453315</v>
+      </c>
+      <c r="D9">
+        <v>-0.06822022589734905</v>
+      </c>
+      <c r="E9">
+        <v>-0.01856071522858359</v>
+      </c>
+      <c r="F9">
+        <v>0.04166380826350029</v>
+      </c>
+      <c r="G9">
+        <v>0.004442083101866056</v>
+      </c>
+      <c r="H9">
+        <v>0.05240822329461697</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03265083124446142</v>
+        <v>0.04370063447700862</v>
       </c>
       <c r="C10">
-        <v>-0.03545152808432367</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.03597508965802386</v>
+      </c>
+      <c r="D10">
+        <v>0.1788028277795514</v>
+      </c>
+      <c r="E10">
+        <v>-0.04444245544002511</v>
+      </c>
+      <c r="F10">
+        <v>0.03696814448926056</v>
+      </c>
+      <c r="G10">
+        <v>0.03852530524485061</v>
+      </c>
+      <c r="H10">
+        <v>-0.02901923095970755</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0662211853621066</v>
+        <v>0.07503225471922176</v>
       </c>
       <c r="C11">
-        <v>-0.050861301477335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.03008460661985813</v>
+      </c>
+      <c r="D11">
+        <v>-0.06797859177135683</v>
+      </c>
+      <c r="E11">
+        <v>0.01223040071769343</v>
+      </c>
+      <c r="F11">
+        <v>0.03525220625050711</v>
+      </c>
+      <c r="G11">
+        <v>0.01923485979416546</v>
+      </c>
+      <c r="H11">
+        <v>0.08718008871487158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05170162526748999</v>
+        <v>0.06400289252857724</v>
       </c>
       <c r="C12">
-        <v>-0.05142011501353481</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03613912529605461</v>
+      </c>
+      <c r="D12">
+        <v>-0.05283249380449254</v>
+      </c>
+      <c r="E12">
+        <v>-0.0073972791584989</v>
+      </c>
+      <c r="F12">
+        <v>0.03292587732969366</v>
+      </c>
+      <c r="G12">
+        <v>0.01358690166211141</v>
+      </c>
+      <c r="H12">
+        <v>0.04521974211954775</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.05688775655939976</v>
+        <v>0.06430197387028155</v>
       </c>
       <c r="C13">
-        <v>-0.05058700023706392</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.03115761133860882</v>
+      </c>
+      <c r="D13">
+        <v>-0.04210603043801612</v>
+      </c>
+      <c r="E13">
+        <v>0.00184311341947649</v>
+      </c>
+      <c r="F13">
+        <v>0.006481046839930711</v>
+      </c>
+      <c r="G13">
+        <v>-0.0001495084929647703</v>
+      </c>
+      <c r="H13">
+        <v>0.06149198720580699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03000488422825648</v>
+        <v>0.03977651779984234</v>
       </c>
       <c r="C14">
-        <v>-0.03058146778584643</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.02446364809529012</v>
+      </c>
+      <c r="D14">
+        <v>-0.005735971108933546</v>
+      </c>
+      <c r="E14">
+        <v>-0.0178416269806362</v>
+      </c>
+      <c r="F14">
+        <v>0.02107314700983642</v>
+      </c>
+      <c r="G14">
+        <v>-0.004680781742496133</v>
+      </c>
+      <c r="H14">
+        <v>0.05463692008004436</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.03964933173090263</v>
+        <v>0.04066008046538911</v>
       </c>
       <c r="C15">
-        <v>-0.01313852046504887</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.002857655174718104</v>
+      </c>
+      <c r="D15">
+        <v>-0.01123138538060932</v>
+      </c>
+      <c r="E15">
+        <v>-0.03894100813423517</v>
+      </c>
+      <c r="F15">
+        <v>0.003840360850062894</v>
+      </c>
+      <c r="G15">
+        <v>-0.01864230575100153</v>
+      </c>
+      <c r="H15">
+        <v>0.06037713976951441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.05528356050653296</v>
+        <v>0.06365313739192516</v>
       </c>
       <c r="C16">
-        <v>-0.04393523040061783</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.0276687471868333</v>
+      </c>
+      <c r="D16">
+        <v>-0.06192573758654928</v>
+      </c>
+      <c r="E16">
+        <v>0.002045472938848658</v>
+      </c>
+      <c r="F16">
+        <v>0.03113009476150823</v>
+      </c>
+      <c r="G16">
+        <v>0.008072897655860136</v>
+      </c>
+      <c r="H16">
+        <v>0.05079388135773578</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06104582473493916</v>
+        <v>0.06219850440391964</v>
       </c>
       <c r="C20">
-        <v>-0.03715760089721225</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01648031930287373</v>
+      </c>
+      <c r="D20">
+        <v>-0.05344811197819596</v>
+      </c>
+      <c r="E20">
+        <v>-0.01605654982153651</v>
+      </c>
+      <c r="F20">
+        <v>0.03160140651539142</v>
+      </c>
+      <c r="G20">
+        <v>0.008484158597137801</v>
+      </c>
+      <c r="H20">
+        <v>0.04361936622401145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02353677984553288</v>
+        <v>0.02313765144713129</v>
       </c>
       <c r="C21">
-        <v>0.003122941434193574</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.01028611038961851</v>
+      </c>
+      <c r="D21">
+        <v>-0.03436141120200038</v>
+      </c>
+      <c r="E21">
+        <v>-0.0797582071082294</v>
+      </c>
+      <c r="F21">
+        <v>0.001330432029875591</v>
+      </c>
+      <c r="G21">
+        <v>-0.005809337254398261</v>
+      </c>
+      <c r="H21">
+        <v>-0.01272331395235239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.06733700507313838</v>
+        <v>0.06257940380265399</v>
       </c>
       <c r="C22">
-        <v>-0.06981896528544651</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.04092318703930995</v>
+      </c>
+      <c r="D22">
+        <v>-0.09729727748129283</v>
+      </c>
+      <c r="E22">
+        <v>-0.6197446022392572</v>
+      </c>
+      <c r="F22">
+        <v>-0.1014525394415066</v>
+      </c>
+      <c r="G22">
+        <v>0.02320503700865593</v>
+      </c>
+      <c r="H22">
+        <v>-0.1079419535309493</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.06853301211244578</v>
+        <v>0.06304276928672828</v>
       </c>
       <c r="C23">
-        <v>-0.06922391366354365</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.03982182213420734</v>
+      </c>
+      <c r="D23">
+        <v>-0.0980694781710353</v>
+      </c>
+      <c r="E23">
+        <v>-0.6187800712607942</v>
+      </c>
+      <c r="F23">
+        <v>-0.1007386607858863</v>
+      </c>
+      <c r="G23">
+        <v>0.02196369583370852</v>
+      </c>
+      <c r="H23">
+        <v>-0.1029720637874806</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.06413688383543489</v>
+        <v>0.07520357390495809</v>
       </c>
       <c r="C24">
-        <v>-0.05315466107778335</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03375035012466189</v>
+      </c>
+      <c r="D24">
+        <v>-0.06523923534668913</v>
+      </c>
+      <c r="E24">
+        <v>-0.005981397338622909</v>
+      </c>
+      <c r="F24">
+        <v>0.04460022526606554</v>
+      </c>
+      <c r="G24">
+        <v>0.005040857862992558</v>
+      </c>
+      <c r="H24">
+        <v>0.05808168443695976</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.06446436297572923</v>
+        <v>0.07347387957565567</v>
       </c>
       <c r="C25">
-        <v>-0.05970005446385671</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03886468691745752</v>
+      </c>
+      <c r="D25">
+        <v>-0.06315224440751761</v>
+      </c>
+      <c r="E25">
+        <v>-0.009514466884170663</v>
+      </c>
+      <c r="F25">
+        <v>0.04099284185227244</v>
+      </c>
+      <c r="G25">
+        <v>-0.006843351009935633</v>
+      </c>
+      <c r="H25">
+        <v>0.06344804118227315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.03896656838300722</v>
+        <v>0.04230884939218591</v>
       </c>
       <c r="C26">
-        <v>-0.01511330813348433</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.005447969380798224</v>
+      </c>
+      <c r="D26">
+        <v>-0.02606118672425015</v>
+      </c>
+      <c r="E26">
+        <v>-0.03626551490527545</v>
+      </c>
+      <c r="F26">
+        <v>0.02843018539196637</v>
+      </c>
+      <c r="G26">
+        <v>0.01015953577300645</v>
+      </c>
+      <c r="H26">
+        <v>0.06386315074456868</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.06047500784412784</v>
+        <v>0.0791360452260465</v>
       </c>
       <c r="C28">
-        <v>-0.07358801042834796</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.06990744776565344</v>
+      </c>
+      <c r="D28">
+        <v>0.3206356979787127</v>
+      </c>
+      <c r="E28">
+        <v>-0.03367738636645465</v>
+      </c>
+      <c r="F28">
+        <v>0.05182521239198593</v>
+      </c>
+      <c r="G28">
+        <v>-0.02274986092886138</v>
+      </c>
+      <c r="H28">
+        <v>0.008122061899444311</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.03651103570956634</v>
+        <v>0.04439494142053075</v>
       </c>
       <c r="C29">
-        <v>-0.02918824000725493</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02181883793902504</v>
+      </c>
+      <c r="D29">
+        <v>-0.01230662432987479</v>
+      </c>
+      <c r="E29">
+        <v>-0.03775822478667169</v>
+      </c>
+      <c r="F29">
+        <v>0.01719897278442494</v>
+      </c>
+      <c r="G29">
+        <v>0.01619850430332729</v>
+      </c>
+      <c r="H29">
+        <v>0.0909926421748576</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.112776243660783</v>
+        <v>0.1303234309436045</v>
       </c>
       <c r="C30">
-        <v>-0.1000874174190363</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.06461110886330028</v>
+      </c>
+      <c r="D30">
+        <v>-0.09470738864583264</v>
+      </c>
+      <c r="E30">
+        <v>-0.04336109156368691</v>
+      </c>
+      <c r="F30">
+        <v>0.02373412189954007</v>
+      </c>
+      <c r="G30">
+        <v>-0.02834797747693453</v>
+      </c>
+      <c r="H30">
+        <v>-0.04378999397249809</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03750748604734185</v>
+        <v>0.04382092340055462</v>
       </c>
       <c r="C31">
-        <v>-0.02379566946909408</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01399180846329504</v>
+      </c>
+      <c r="D31">
+        <v>-0.02926119914785503</v>
+      </c>
+      <c r="E31">
+        <v>-0.02088605079122354</v>
+      </c>
+      <c r="F31">
+        <v>0.01571660060131526</v>
+      </c>
+      <c r="G31">
+        <v>0.02429291158838865</v>
+      </c>
+      <c r="H31">
+        <v>0.06610911999113958</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03414485924588048</v>
+        <v>0.03353698875551922</v>
       </c>
       <c r="C32">
-        <v>-0.02354505476169682</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01293942964942028</v>
+      </c>
+      <c r="D32">
+        <v>-0.0138448707441874</v>
+      </c>
+      <c r="E32">
+        <v>-0.06874577417790045</v>
+      </c>
+      <c r="F32">
+        <v>0.002972198876204318</v>
+      </c>
+      <c r="G32">
+        <v>-0.03205383617097128</v>
+      </c>
+      <c r="H32">
+        <v>0.0309608942068047</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.07359328990286319</v>
+        <v>0.08778827454968309</v>
       </c>
       <c r="C33">
-        <v>-0.05189599156933135</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.03226413569188047</v>
+      </c>
+      <c r="D33">
+        <v>-0.0612612211921492</v>
+      </c>
+      <c r="E33">
+        <v>-0.01352075326434955</v>
+      </c>
+      <c r="F33">
+        <v>0.01126016390425988</v>
+      </c>
+      <c r="G33">
+        <v>0.01729043571133559</v>
+      </c>
+      <c r="H33">
+        <v>0.05607184640081582</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05151339436297434</v>
+        <v>0.05817655061221709</v>
       </c>
       <c r="C34">
-        <v>-0.03356939403613988</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01741793602204733</v>
+      </c>
+      <c r="D34">
+        <v>-0.06217190829052546</v>
+      </c>
+      <c r="E34">
+        <v>-0.000952998848659587</v>
+      </c>
+      <c r="F34">
+        <v>0.0271858362740568</v>
+      </c>
+      <c r="G34">
+        <v>0.002553240322359199</v>
+      </c>
+      <c r="H34">
+        <v>0.04379791619135753</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03496758186988531</v>
+        <v>0.03970315269268246</v>
       </c>
       <c r="C35">
-        <v>-0.01192168385544094</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.004350740630246178</v>
+      </c>
+      <c r="D35">
+        <v>-0.0150950678775733</v>
+      </c>
+      <c r="E35">
+        <v>-0.02076248885465959</v>
+      </c>
+      <c r="F35">
+        <v>0.00186911956759412</v>
+      </c>
+      <c r="G35">
+        <v>0.01417944929009885</v>
+      </c>
+      <c r="H35">
+        <v>0.0368210118000145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01733898828098284</v>
+        <v>0.02485808586983116</v>
       </c>
       <c r="C36">
-        <v>-0.01684968813029316</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.01317622410048246</v>
+      </c>
+      <c r="D36">
+        <v>-0.01954163756136079</v>
+      </c>
+      <c r="E36">
+        <v>-0.03672329198264753</v>
+      </c>
+      <c r="F36">
+        <v>0.02288959088933902</v>
+      </c>
+      <c r="G36">
+        <v>0.01576922552246884</v>
+      </c>
+      <c r="H36">
+        <v>0.05265482248461255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03855805762479848</v>
+        <v>0.04171077052720527</v>
       </c>
       <c r="C38">
-        <v>-0.01045292898180077</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.002111148542847193</v>
+      </c>
+      <c r="D38">
+        <v>-0.01941783409665735</v>
+      </c>
+      <c r="E38">
+        <v>-0.06229617760088474</v>
+      </c>
+      <c r="F38">
+        <v>-0.01201459287944206</v>
+      </c>
+      <c r="G38">
+        <v>-0.01721215250028809</v>
+      </c>
+      <c r="H38">
+        <v>0.04331213841621493</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.08408604366406566</v>
+        <v>0.0993517236680849</v>
       </c>
       <c r="C39">
-        <v>-0.08215085727335145</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.0553646588792738</v>
+      </c>
+      <c r="D39">
+        <v>-0.07882702851953259</v>
+      </c>
+      <c r="E39">
+        <v>0.01404943139142535</v>
+      </c>
+      <c r="F39">
+        <v>0.01903662447617731</v>
+      </c>
+      <c r="G39">
+        <v>-0.01996277418486032</v>
+      </c>
+      <c r="H39">
+        <v>0.04179223121958044</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.06714820878682963</v>
+        <v>0.06993726553960644</v>
       </c>
       <c r="C40">
-        <v>-0.05787926348221711</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.03416509087225383</v>
+      </c>
+      <c r="D40">
+        <v>-0.00915934057002029</v>
+      </c>
+      <c r="E40">
+        <v>-0.02916680778228431</v>
+      </c>
+      <c r="F40">
+        <v>-0.05302385828264541</v>
+      </c>
+      <c r="G40">
+        <v>-0.0795479564103021</v>
+      </c>
+      <c r="H40">
+        <v>-0.1034137875036431</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.03819204806836253</v>
+        <v>0.04226513012973755</v>
       </c>
       <c r="C41">
-        <v>-0.01423035816689456</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.005313942520606916</v>
+      </c>
+      <c r="D41">
+        <v>-0.04156340533588219</v>
+      </c>
+      <c r="E41">
+        <v>-0.007250447184061733</v>
+      </c>
+      <c r="F41">
+        <v>-0.005213174680809456</v>
+      </c>
+      <c r="G41">
+        <v>-0.008860619002239662</v>
+      </c>
+      <c r="H41">
+        <v>0.04364300497910651</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0426998196558865</v>
+        <v>0.05148366773859376</v>
       </c>
       <c r="C43">
-        <v>-0.03272924074406013</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.02044949511406391</v>
+      </c>
+      <c r="D43">
+        <v>-0.0287711388422597</v>
+      </c>
+      <c r="E43">
+        <v>-0.01575411870624959</v>
+      </c>
+      <c r="F43">
+        <v>0.01574396099772685</v>
+      </c>
+      <c r="G43">
+        <v>0.01023664373115732</v>
+      </c>
+      <c r="H43">
+        <v>0.05012271652920371</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.08984430048053293</v>
+        <v>0.09061916373009064</v>
       </c>
       <c r="C44">
-        <v>-0.09649281014947128</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06166894752941449</v>
+      </c>
+      <c r="D44">
+        <v>-0.06032515901350851</v>
+      </c>
+      <c r="E44">
+        <v>-0.09627334385442389</v>
+      </c>
+      <c r="F44">
+        <v>0.06481853175237294</v>
+      </c>
+      <c r="G44">
+        <v>-0.02485639782142232</v>
+      </c>
+      <c r="H44">
+        <v>-0.06961115202819118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0258176079921582</v>
+        <v>0.02776385262177658</v>
       </c>
       <c r="C46">
-        <v>-0.0182643629062546</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.009892240723783804</v>
+      </c>
+      <c r="D46">
+        <v>-0.03345042400742988</v>
+      </c>
+      <c r="E46">
+        <v>-0.01651610611462092</v>
+      </c>
+      <c r="F46">
+        <v>0.01871397427776854</v>
+      </c>
+      <c r="G46">
+        <v>-0.0001232198939165996</v>
+      </c>
+      <c r="H46">
+        <v>0.04592482110540009</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.02529237576185839</v>
+        <v>0.02798876739731745</v>
       </c>
       <c r="C47">
-        <v>-0.02100910078394483</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.0132465505721262</v>
+      </c>
+      <c r="D47">
+        <v>-0.0118197041114607</v>
+      </c>
+      <c r="E47">
+        <v>-0.04670064127618253</v>
+      </c>
+      <c r="F47">
+        <v>0.01591929676850641</v>
+      </c>
+      <c r="G47">
+        <v>0.03635642258680062</v>
+      </c>
+      <c r="H47">
+        <v>0.03305797341951461</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02752583038195019</v>
+        <v>0.03263888690658221</v>
       </c>
       <c r="C48">
-        <v>-0.02032071828424032</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.01212855172108264</v>
+      </c>
+      <c r="D48">
+        <v>-0.03394383631455442</v>
+      </c>
+      <c r="E48">
+        <v>-0.03997983500634895</v>
+      </c>
+      <c r="F48">
+        <v>0.01813618192467699</v>
+      </c>
+      <c r="G48">
+        <v>-0.002981997257901833</v>
+      </c>
+      <c r="H48">
+        <v>0.05579207079129925</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1501508420131148</v>
+        <v>0.1792640025372473</v>
       </c>
       <c r="C49">
-        <v>-0.09167216278720433</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.05390698409089095</v>
+      </c>
+      <c r="D49">
+        <v>-0.02676421382266574</v>
+      </c>
+      <c r="E49">
+        <v>0.1301898305858167</v>
+      </c>
+      <c r="F49">
+        <v>0.02606444781421616</v>
+      </c>
+      <c r="G49">
+        <v>0.03835170445805523</v>
+      </c>
+      <c r="H49">
+        <v>-0.2725080927936183</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03340351388092715</v>
+        <v>0.04227673106633981</v>
       </c>
       <c r="C50">
-        <v>-0.02833947286176552</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.02178376278258309</v>
+      </c>
+      <c r="D50">
+        <v>-0.0353024801956152</v>
+      </c>
+      <c r="E50">
+        <v>-0.0449736717755496</v>
+      </c>
+      <c r="F50">
+        <v>0.02963006806314458</v>
+      </c>
+      <c r="G50">
+        <v>0.0222508713073787</v>
+      </c>
+      <c r="H50">
+        <v>0.07100459850083621</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02341990846912959</v>
+        <v>0.02643358142337579</v>
       </c>
       <c r="C51">
-        <v>-0.01493804450468813</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.00950840311815648</v>
+      </c>
+      <c r="D51">
+        <v>-0.0224891442979216</v>
+      </c>
+      <c r="E51">
+        <v>-0.01470861000610926</v>
+      </c>
+      <c r="F51">
+        <v>0.01136939381377165</v>
+      </c>
+      <c r="G51">
+        <v>-0.003928703051908255</v>
+      </c>
+      <c r="H51">
+        <v>0.01453467813344691</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1376119218809305</v>
+        <v>0.1579794183535385</v>
       </c>
       <c r="C53">
-        <v>-0.09627012116729537</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.0642241368987623</v>
+      </c>
+      <c r="D53">
+        <v>-0.02341786339692596</v>
+      </c>
+      <c r="E53">
+        <v>0.04092734242471749</v>
+      </c>
+      <c r="F53">
+        <v>0.0134259741368981</v>
+      </c>
+      <c r="G53">
+        <v>0.004307874001083655</v>
+      </c>
+      <c r="H53">
+        <v>0.1505552755315938</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.0510423415597219</v>
+        <v>0.05509769250334466</v>
       </c>
       <c r="C54">
-        <v>-0.02917140777889096</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01407257269375511</v>
+      </c>
+      <c r="D54">
+        <v>-0.03250048470757346</v>
+      </c>
+      <c r="E54">
+        <v>-0.04712199290262056</v>
+      </c>
+      <c r="F54">
+        <v>0.02109463005193211</v>
+      </c>
+      <c r="G54">
+        <v>-0.001204458943136813</v>
+      </c>
+      <c r="H54">
+        <v>0.06156369681064022</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09111667925536734</v>
+        <v>0.09885943910144429</v>
       </c>
       <c r="C55">
-        <v>-0.06171890723358545</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.03904057380368434</v>
+      </c>
+      <c r="D55">
+        <v>-0.03103304054153455</v>
+      </c>
+      <c r="E55">
+        <v>-0.006262149982407435</v>
+      </c>
+      <c r="F55">
+        <v>0.02239055867798983</v>
+      </c>
+      <c r="G55">
+        <v>0.003379170923178671</v>
+      </c>
+      <c r="H55">
+        <v>0.1362134590824506</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1365689536590303</v>
+        <v>0.1563730929362901</v>
       </c>
       <c r="C56">
-        <v>-0.1074903850562327</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.07286695176213044</v>
+      </c>
+      <c r="D56">
+        <v>-0.01643081560610686</v>
+      </c>
+      <c r="E56">
+        <v>0.04242040386730694</v>
+      </c>
+      <c r="F56">
+        <v>0.0415059394053566</v>
+      </c>
+      <c r="G56">
+        <v>0.01949311115198018</v>
+      </c>
+      <c r="H56">
+        <v>0.148063516405809</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1148716606901011</v>
+        <v>0.09934100804195373</v>
       </c>
       <c r="C58">
-        <v>-0.02813162827887017</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.01371227992812844</v>
+      </c>
+      <c r="D58">
+        <v>-0.06063909094552813</v>
+      </c>
+      <c r="E58">
+        <v>-0.1844986882646778</v>
+      </c>
+      <c r="F58">
+        <v>0.02848366510027726</v>
+      </c>
+      <c r="G58">
+        <v>0.04497209940983649</v>
+      </c>
+      <c r="H58">
+        <v>-0.1968803251525341</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1159416739302049</v>
+        <v>0.1516882572267211</v>
       </c>
       <c r="C59">
-        <v>-0.08672938829384177</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.07961918463464419</v>
+      </c>
+      <c r="D59">
+        <v>0.3557284598361415</v>
+      </c>
+      <c r="E59">
+        <v>-0.04294060811771141</v>
+      </c>
+      <c r="F59">
+        <v>-0.01392766789593695</v>
+      </c>
+      <c r="G59">
+        <v>0.04130694540148028</v>
+      </c>
+      <c r="H59">
+        <v>0.002687312996639872</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1877540392738254</v>
+        <v>0.2200306256044684</v>
       </c>
       <c r="C60">
-        <v>-0.1180031083156921</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.07486864366336116</v>
+      </c>
+      <c r="D60">
+        <v>-0.02762372408165933</v>
+      </c>
+      <c r="E60">
+        <v>0.07249144939633928</v>
+      </c>
+      <c r="F60">
+        <v>0.04090258699004028</v>
+      </c>
+      <c r="G60">
+        <v>-0.02486491275957058</v>
+      </c>
+      <c r="H60">
+        <v>-0.1674684669658813</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07309614459687884</v>
+        <v>0.08431323299534912</v>
       </c>
       <c r="C61">
-        <v>-0.06211123248439872</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.04101550000982943</v>
+      </c>
+      <c r="D61">
+        <v>-0.05877391957232576</v>
+      </c>
+      <c r="E61">
+        <v>0.01625175388393741</v>
+      </c>
+      <c r="F61">
+        <v>0.009693508801396085</v>
+      </c>
+      <c r="G61">
+        <v>0.01489733079587337</v>
+      </c>
+      <c r="H61">
+        <v>0.06851326073948964</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1182903578938411</v>
+        <v>0.1382097520629767</v>
       </c>
       <c r="C62">
-        <v>-0.08173548044693586</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.05402703828023066</v>
+      </c>
+      <c r="D62">
+        <v>-0.02560025456314025</v>
+      </c>
+      <c r="E62">
+        <v>0.05528387068513157</v>
+      </c>
+      <c r="F62">
+        <v>0.01553542122029876</v>
+      </c>
+      <c r="G62">
+        <v>-0.02673946198306853</v>
+      </c>
+      <c r="H62">
+        <v>0.15025884789931</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.049250023465004</v>
+        <v>0.0507638205267513</v>
       </c>
       <c r="C63">
-        <v>-0.03287810639518388</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.01788555213522606</v>
+      </c>
+      <c r="D63">
+        <v>-0.02960852185560908</v>
+      </c>
+      <c r="E63">
+        <v>-0.04619114100896813</v>
+      </c>
+      <c r="F63">
+        <v>0.01515475322148381</v>
+      </c>
+      <c r="G63">
+        <v>-0.03015558693941759</v>
+      </c>
+      <c r="H63">
+        <v>0.08590492685033639</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1051383342572282</v>
+        <v>0.1110135317543551</v>
       </c>
       <c r="C64">
-        <v>-0.04127300376316418</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.01259852684928538</v>
+      </c>
+      <c r="D64">
+        <v>-0.04677212023085075</v>
+      </c>
+      <c r="E64">
+        <v>-0.02355267989621799</v>
+      </c>
+      <c r="F64">
+        <v>0.05668269471759849</v>
+      </c>
+      <c r="G64">
+        <v>-0.02006650251680889</v>
+      </c>
+      <c r="H64">
+        <v>0.0789104522816659</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1107748498785524</v>
+        <v>0.1240173536451456</v>
       </c>
       <c r="C65">
-        <v>-0.06714935272932308</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.040793952645577</v>
+      </c>
+      <c r="D65">
+        <v>-0.00746018846803698</v>
+      </c>
+      <c r="E65">
+        <v>0.002081391544982863</v>
+      </c>
+      <c r="F65">
+        <v>0.06402098447696845</v>
+      </c>
+      <c r="G65">
+        <v>-0.03661709499711905</v>
+      </c>
+      <c r="H65">
+        <v>-0.08906318603442771</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1308747327369339</v>
+        <v>0.150599503468285</v>
       </c>
       <c r="C66">
-        <v>-0.0924052522521457</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.05601656276554848</v>
+      </c>
+      <c r="D66">
+        <v>-0.117070329159534</v>
+      </c>
+      <c r="E66">
+        <v>0.05532496043952558</v>
+      </c>
+      <c r="F66">
+        <v>0.03566491126430483</v>
+      </c>
+      <c r="G66">
+        <v>-0.02282567108009798</v>
+      </c>
+      <c r="H66">
+        <v>0.1160791103348779</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.06997335746214477</v>
+        <v>0.07635122727556895</v>
       </c>
       <c r="C67">
-        <v>-0.02262403124719056</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.007133775314740859</v>
+      </c>
+      <c r="D67">
+        <v>-0.03048527420327001</v>
+      </c>
+      <c r="E67">
+        <v>-0.02754440097684475</v>
+      </c>
+      <c r="F67">
+        <v>0.006876544427784318</v>
+      </c>
+      <c r="G67">
+        <v>0.004017948189995947</v>
+      </c>
+      <c r="H67">
+        <v>0.03706407041579347</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06060332441273984</v>
+        <v>0.07314489939225237</v>
       </c>
       <c r="C68">
-        <v>-0.05018723616215438</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.04671581390083262</v>
+      </c>
+      <c r="D68">
+        <v>0.2650973714118158</v>
+      </c>
+      <c r="E68">
+        <v>-0.04780362107668901</v>
+      </c>
+      <c r="F68">
+        <v>0.009415044640532253</v>
+      </c>
+      <c r="G68">
+        <v>0.008738902897650168</v>
+      </c>
+      <c r="H68">
+        <v>0.02180523083901988</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.04665403730664564</v>
+        <v>0.04681578214251397</v>
       </c>
       <c r="C69">
-        <v>-0.02498649776851826</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.009157067217472802</v>
+      </c>
+      <c r="D69">
+        <v>-0.02593020267049383</v>
+      </c>
+      <c r="E69">
+        <v>-0.02135779857468888</v>
+      </c>
+      <c r="F69">
+        <v>-0.0009988424467681793</v>
+      </c>
+      <c r="G69">
+        <v>0.0107087986373366</v>
+      </c>
+      <c r="H69">
+        <v>0.06024327677175269</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004727212513035235</v>
+        <v>0.01661380490692943</v>
       </c>
       <c r="C70">
-        <v>0.003302934247504634</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.001077667258542132</v>
+      </c>
+      <c r="D70">
+        <v>0.005292498820118342</v>
+      </c>
+      <c r="E70">
+        <v>0.02191709005845372</v>
+      </c>
+      <c r="F70">
+        <v>0.01457700913650238</v>
+      </c>
+      <c r="G70">
+        <v>0.0176398633764091</v>
+      </c>
+      <c r="H70">
+        <v>-0.04322046114517657</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.06436178696823196</v>
+        <v>0.07756997040766447</v>
       </c>
       <c r="C71">
-        <v>-0.04771698810128353</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.04456278802264447</v>
+      </c>
+      <c r="D71">
+        <v>0.2963968771305998</v>
+      </c>
+      <c r="E71">
+        <v>-0.04286012837765885</v>
+      </c>
+      <c r="F71">
+        <v>0.03714130131493069</v>
+      </c>
+      <c r="G71">
+        <v>0.006888031650355168</v>
+      </c>
+      <c r="H71">
+        <v>0.008203690685414206</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1331909668202553</v>
+        <v>0.1544013292191042</v>
       </c>
       <c r="C72">
-        <v>-0.07489597875588211</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.04314980880099906</v>
+      </c>
+      <c r="D72">
+        <v>-0.008916680005389973</v>
+      </c>
+      <c r="E72">
+        <v>0.08497066773341433</v>
+      </c>
+      <c r="F72">
+        <v>-0.164235413809201</v>
+      </c>
+      <c r="G72">
+        <v>-0.1187904575178124</v>
+      </c>
+      <c r="H72">
+        <v>0.02031539097740309</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2471571387465155</v>
+        <v>0.2791629962434319</v>
       </c>
       <c r="C73">
-        <v>-0.1435781908842204</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.07708933178544043</v>
+      </c>
+      <c r="D73">
+        <v>-0.08521569362066166</v>
+      </c>
+      <c r="E73">
+        <v>0.1838053764656804</v>
+      </c>
+      <c r="F73">
+        <v>0.0679873435981064</v>
+      </c>
+      <c r="G73">
+        <v>0.1670621334854192</v>
+      </c>
+      <c r="H73">
+        <v>-0.6047172369419294</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07146052300014187</v>
+        <v>0.08755896330351211</v>
       </c>
       <c r="C74">
-        <v>-0.08294305939491546</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.06264092214899467</v>
+      </c>
+      <c r="D74">
+        <v>-0.02964564035471064</v>
+      </c>
+      <c r="E74">
+        <v>0.007028031756818033</v>
+      </c>
+      <c r="F74">
+        <v>-0.01331415902527427</v>
+      </c>
+      <c r="G74">
+        <v>0.03788780346333984</v>
+      </c>
+      <c r="H74">
+        <v>0.1279205644072467</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09256714614530451</v>
+        <v>0.1015735506776928</v>
       </c>
       <c r="C75">
-        <v>-0.06222305782971638</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.03274098851834065</v>
+      </c>
+      <c r="D75">
+        <v>-0.01192999314362245</v>
+      </c>
+      <c r="E75">
+        <v>0.007270194968872441</v>
+      </c>
+      <c r="F75">
+        <v>0.0485039247402127</v>
+      </c>
+      <c r="G75">
+        <v>0.02193473860578941</v>
+      </c>
+      <c r="H75">
+        <v>0.1157305667842125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1150279243467939</v>
+        <v>0.1312303328218378</v>
       </c>
       <c r="C76">
-        <v>-0.09688675141352486</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.06615549309057793</v>
+      </c>
+      <c r="D76">
+        <v>-0.04961183024081602</v>
+      </c>
+      <c r="E76">
+        <v>-0.006457472154076479</v>
+      </c>
+      <c r="F76">
+        <v>0.06077357703783062</v>
+      </c>
+      <c r="G76">
+        <v>0.01118055990357444</v>
+      </c>
+      <c r="H76">
+        <v>0.1571083047821275</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1142658817750592</v>
+        <v>0.113076410696529</v>
       </c>
       <c r="C77">
-        <v>-0.05376625936145486</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.01819679457172458</v>
+      </c>
+      <c r="D77">
+        <v>-0.0152864834331401</v>
+      </c>
+      <c r="E77">
+        <v>0.01129313144045076</v>
+      </c>
+      <c r="F77">
+        <v>0.2447162252334174</v>
+      </c>
+      <c r="G77">
+        <v>-0.8838304029487102</v>
+      </c>
+      <c r="H77">
+        <v>-0.1028985395840881</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.08778294676689415</v>
+        <v>0.1113127351625443</v>
       </c>
       <c r="C78">
-        <v>-0.04828240261652053</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03082518598284145</v>
+      </c>
+      <c r="D78">
+        <v>-0.08478223125933128</v>
+      </c>
+      <c r="E78">
+        <v>-0.06559404145855234</v>
+      </c>
+      <c r="F78">
+        <v>0.01883607444347686</v>
+      </c>
+      <c r="G78">
+        <v>-0.03735146786473317</v>
+      </c>
+      <c r="H78">
+        <v>-0.1093530673736834</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1346956202252859</v>
+        <v>0.15035331787653</v>
       </c>
       <c r="C79">
-        <v>-0.1017057407015464</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.0617799611061426</v>
+      </c>
+      <c r="D79">
+        <v>-0.03178065872169879</v>
+      </c>
+      <c r="E79">
+        <v>0.02936269464919442</v>
+      </c>
+      <c r="F79">
+        <v>0.02422508578927633</v>
+      </c>
+      <c r="G79">
+        <v>0.02277942035837673</v>
+      </c>
+      <c r="H79">
+        <v>0.1470195137493241</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03981713584185641</v>
+        <v>0.03834119780004398</v>
       </c>
       <c r="C80">
-        <v>-0.01965380981060145</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.007423224883586665</v>
+      </c>
+      <c r="D80">
+        <v>-0.0286379507466553</v>
+      </c>
+      <c r="E80">
+        <v>0.003558875761165614</v>
+      </c>
+      <c r="F80">
+        <v>-0.02487772647237388</v>
+      </c>
+      <c r="G80">
+        <v>0.03323292130311181</v>
+      </c>
+      <c r="H80">
+        <v>0.04549349319153646</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1085694150322312</v>
+        <v>0.1190403610864157</v>
       </c>
       <c r="C81">
-        <v>-0.07670680372902669</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.04463705398668834</v>
+      </c>
+      <c r="D81">
+        <v>-0.03136672732324131</v>
+      </c>
+      <c r="E81">
+        <v>0.01116486731146798</v>
+      </c>
+      <c r="F81">
+        <v>0.0282985662834194</v>
+      </c>
+      <c r="G81">
+        <v>0.06099165787234212</v>
+      </c>
+      <c r="H81">
+        <v>0.1706295601482463</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1161885183605196</v>
+        <v>0.1270114710261625</v>
       </c>
       <c r="C82">
-        <v>-0.0888197391600548</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.05597636919788341</v>
+      </c>
+      <c r="D82">
+        <v>-0.03237644281065009</v>
+      </c>
+      <c r="E82">
+        <v>0.02682537146003956</v>
+      </c>
+      <c r="F82">
+        <v>0.05055975313603267</v>
+      </c>
+      <c r="G82">
+        <v>0.05304752507186892</v>
+      </c>
+      <c r="H82">
+        <v>0.1742519184026544</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07340107060378601</v>
+        <v>0.07559828356657686</v>
       </c>
       <c r="C83">
-        <v>-0.02313125747823275</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.001427869074407105</v>
+      </c>
+      <c r="D83">
+        <v>-0.04628787687276263</v>
+      </c>
+      <c r="E83">
+        <v>-0.01762819202311977</v>
+      </c>
+      <c r="F83">
+        <v>0.01565198352443866</v>
+      </c>
+      <c r="G83">
+        <v>0.08134257862375982</v>
+      </c>
+      <c r="H83">
+        <v>0.005322603577540007</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02617966330999809</v>
+        <v>0.03649997599735335</v>
       </c>
       <c r="C84">
-        <v>-0.02860457051872567</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.023498284489623</v>
+      </c>
+      <c r="D84">
+        <v>-0.03621962223352355</v>
+      </c>
+      <c r="E84">
+        <v>-0.02288236975636325</v>
+      </c>
+      <c r="F84">
+        <v>-0.05081168478942306</v>
+      </c>
+      <c r="G84">
+        <v>0.05344623412735905</v>
+      </c>
+      <c r="H84">
+        <v>0.01579891021570299</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.11230538907754</v>
+        <v>0.1166039933873586</v>
       </c>
       <c r="C85">
-        <v>-0.07278433749538704</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.03760662860767185</v>
+      </c>
+      <c r="D85">
+        <v>-0.03004800196825909</v>
+      </c>
+      <c r="E85">
+        <v>0.0002278967556077016</v>
+      </c>
+      <c r="F85">
+        <v>0.07375802744942866</v>
+      </c>
+      <c r="G85">
+        <v>0.03028953635357066</v>
+      </c>
+      <c r="H85">
+        <v>0.1244565017033475</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.04737524681436846</v>
+        <v>0.05005121898578661</v>
       </c>
       <c r="C86">
-        <v>-0.02651058392513448</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.012611588027447</v>
+      </c>
+      <c r="D86">
+        <v>-0.02101484257341568</v>
+      </c>
+      <c r="E86">
+        <v>-0.05730407714028827</v>
+      </c>
+      <c r="F86">
+        <v>0.0316664655570464</v>
+      </c>
+      <c r="G86">
+        <v>0.007466368644580714</v>
+      </c>
+      <c r="H86">
+        <v>0.01058411777670783</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1161335556956626</v>
+        <v>0.1206449180778515</v>
       </c>
       <c r="C87">
-        <v>-0.08116273484383818</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.04103299949485677</v>
+      </c>
+      <c r="D87">
+        <v>-0.07048144580993265</v>
+      </c>
+      <c r="E87">
+        <v>-0.01260487571312328</v>
+      </c>
+      <c r="F87">
+        <v>0.02015201397162844</v>
+      </c>
+      <c r="G87">
+        <v>-0.1053171969340213</v>
+      </c>
+      <c r="H87">
+        <v>0.003344009630274632</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05119905422510986</v>
+        <v>0.05748615540840718</v>
       </c>
       <c r="C88">
-        <v>-0.03688704038580605</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.02246112707731222</v>
+      </c>
+      <c r="D88">
+        <v>-0.02469150399323742</v>
+      </c>
+      <c r="E88">
+        <v>-0.01746318388527696</v>
+      </c>
+      <c r="F88">
+        <v>0.01169338366334023</v>
+      </c>
+      <c r="G88">
+        <v>-0.008717424858524175</v>
+      </c>
+      <c r="H88">
+        <v>0.06906064909103969</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08478782155302049</v>
+        <v>0.111003849464967</v>
       </c>
       <c r="C89">
-        <v>-0.07220060310315865</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.06942258110351958</v>
+      </c>
+      <c r="D89">
+        <v>0.3277254117488542</v>
+      </c>
+      <c r="E89">
+        <v>-0.07312243277630236</v>
+      </c>
+      <c r="F89">
+        <v>0.06779397237980954</v>
+      </c>
+      <c r="G89">
+        <v>0.03016822163557783</v>
+      </c>
+      <c r="H89">
+        <v>-0.004096988574063442</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07531371182882921</v>
+        <v>0.0933560891444886</v>
       </c>
       <c r="C90">
-        <v>-0.06213503991838429</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.05724831193731961</v>
+      </c>
+      <c r="D90">
+        <v>0.3049484092205368</v>
+      </c>
+      <c r="E90">
+        <v>-0.06165024803026974</v>
+      </c>
+      <c r="F90">
+        <v>-0.01149412188915841</v>
+      </c>
+      <c r="G90">
+        <v>0.005977624730722325</v>
+      </c>
+      <c r="H90">
+        <v>0.02420666466555256</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.07645721348693406</v>
+        <v>0.08617034820149677</v>
       </c>
       <c r="C91">
-        <v>-0.06534264060794941</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.04198058870725308</v>
+      </c>
+      <c r="D91">
+        <v>-0.02460550958668273</v>
+      </c>
+      <c r="E91">
+        <v>-0.01145249994891493</v>
+      </c>
+      <c r="F91">
+        <v>0.01007887027587032</v>
+      </c>
+      <c r="G91">
+        <v>0.04507428753108919</v>
+      </c>
+      <c r="H91">
+        <v>0.08595336379392561</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.08535083748446641</v>
+        <v>0.1049206397847075</v>
       </c>
       <c r="C92">
-        <v>-0.07361312602538582</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.06601727828423293</v>
+      </c>
+      <c r="D92">
+        <v>0.3403671972633543</v>
+      </c>
+      <c r="E92">
+        <v>-0.046612249468342</v>
+      </c>
+      <c r="F92">
+        <v>0.02942085406679212</v>
+      </c>
+      <c r="G92">
+        <v>0.005793616728519552</v>
+      </c>
+      <c r="H92">
+        <v>0.02273356140879603</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06868098699907089</v>
+        <v>0.08972482669389537</v>
       </c>
       <c r="C93">
-        <v>-0.06261996361091343</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.06192708129175081</v>
+      </c>
+      <c r="D93">
+        <v>0.3025192129751</v>
+      </c>
+      <c r="E93">
+        <v>-0.03222838897399622</v>
+      </c>
+      <c r="F93">
+        <v>0.04086895806524114</v>
+      </c>
+      <c r="G93">
+        <v>-0.001034102265388991</v>
+      </c>
+      <c r="H93">
+        <v>-0.01154414671000502</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1223305959317302</v>
+        <v>0.1259219628850495</v>
       </c>
       <c r="C94">
-        <v>-0.07623180173813519</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.0352351423414041</v>
+      </c>
+      <c r="D94">
+        <v>-0.05317102321262426</v>
+      </c>
+      <c r="E94">
+        <v>0.02519729389460656</v>
+      </c>
+      <c r="F94">
+        <v>0.02976279346625938</v>
+      </c>
+      <c r="G94">
+        <v>0.04651137207511265</v>
+      </c>
+      <c r="H94">
+        <v>0.08194162933538325</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1125922114008389</v>
+        <v>0.1190459148099153</v>
       </c>
       <c r="C95">
-        <v>-0.05859414289652979</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.02258812812850074</v>
+      </c>
+      <c r="D95">
+        <v>-0.06004409588906276</v>
+      </c>
+      <c r="E95">
+        <v>0.009569047953401163</v>
+      </c>
+      <c r="F95">
+        <v>0.0260448559362411</v>
+      </c>
+      <c r="G95">
+        <v>0.01256616068611339</v>
+      </c>
+      <c r="H95">
+        <v>0.02961006640792795</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.201396353901974</v>
+        <v>0.2202788599951448</v>
       </c>
       <c r="C97">
-        <v>-0.07873241471286099</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.03087499700747852</v>
+      </c>
+      <c r="D97">
+        <v>0.02166102317707287</v>
+      </c>
+      <c r="E97">
+        <v>0.1180533039730423</v>
+      </c>
+      <c r="F97">
+        <v>-0.8966746988384834</v>
+      </c>
+      <c r="G97">
+        <v>-0.1910285987848151</v>
+      </c>
+      <c r="H97">
+        <v>0.02064925088803136</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2365087347918607</v>
+        <v>0.2670510785776872</v>
       </c>
       <c r="C98">
-        <v>-0.1188776692138836</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.05664088832386651</v>
+      </c>
+      <c r="D98">
+        <v>-0.06567425564971176</v>
+      </c>
+      <c r="E98">
+        <v>0.1619271582324431</v>
+      </c>
+      <c r="F98">
+        <v>0.02481474586309768</v>
+      </c>
+      <c r="G98">
+        <v>0.264488020247074</v>
+      </c>
+      <c r="H98">
+        <v>-0.1333471137511393</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.552171447526675</v>
+        <v>0.3384699196781155</v>
       </c>
       <c r="C99">
-        <v>0.8239896916726369</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9297196746417257</v>
+      </c>
+      <c r="D99">
+        <v>0.06681495427341572</v>
+      </c>
+      <c r="E99">
+        <v>-0.03930561879422639</v>
+      </c>
+      <c r="F99">
+        <v>0.04010530156804074</v>
+      </c>
+      <c r="G99">
+        <v>0.01578405703826597</v>
+      </c>
+      <c r="H99">
+        <v>0.04007567873847236</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.03657624364977513</v>
+        <v>0.04444516901832129</v>
       </c>
       <c r="C101">
-        <v>-0.02919355582211756</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.02186260179856267</v>
+      </c>
+      <c r="D101">
+        <v>-0.01298851775968941</v>
+      </c>
+      <c r="E101">
+        <v>-0.03718567419137334</v>
+      </c>
+      <c r="F101">
+        <v>0.01668720056634956</v>
+      </c>
+      <c r="G101">
+        <v>0.01638204907627655</v>
+      </c>
+      <c r="H101">
+        <v>0.09025218949975888</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
